--- a/data/download/Florida Prison Admissions and Population Sentenced Under Ch. 99-12 (3-10-20-Life).xlsx
+++ b/data/download/Florida Prison Admissions and Population Sentenced Under Ch. 99-12 (3-10-20-Life).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EPelletier\Box Sync\09126 OSF Long Sentences\Data\Final\DOWNLOADABLE DATA FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\LCourtney\Box Sync\09126 OSF Long Sentences\Website Content\Policy section\Final Excel sheets for website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Fiscal year</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Population, June 30th</t>
+  </si>
+  <si>
+    <t>http://www.edr.state.fl.us/Content/conferences/criminaljustice/trends.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>Florida Office of Economic and Demographic Research: Criminal Justice Trends (February 23, 2017)</t>
   </si>
 </sst>
 </file>
@@ -400,21 +409,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.88671875" customWidth="1"/>
+    <col min="1" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -425,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -436,7 +447,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -447,7 +458,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -458,7 +469,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -469,7 +480,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -480,7 +491,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -491,7 +502,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -502,7 +513,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -513,7 +524,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -524,7 +535,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -535,7 +546,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -546,7 +557,7 @@
         <v>7127</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -557,7 +568,7 @@
         <v>7919</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -568,7 +579,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -579,7 +590,7 @@
         <v>9319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -590,7 +601,7 @@
         <v>9935</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -601,7 +612,7 @@
         <v>10481</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -610,6 +621,21 @@
       </c>
       <c r="C19" s="2">
         <v>10925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
